--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ckap4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="H2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="I2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="J2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8715891782713</v>
+        <v>9.967319</v>
       </c>
       <c r="N2">
-        <v>6.8715891782713</v>
+        <v>29.901957</v>
       </c>
       <c r="O2">
-        <v>0.06369174809660225</v>
+        <v>0.08264792537087799</v>
       </c>
       <c r="P2">
-        <v>0.06369174809660225</v>
+        <v>0.08549607545086686</v>
       </c>
       <c r="Q2">
-        <v>20.8575439244798</v>
+        <v>30.525602182511</v>
       </c>
       <c r="R2">
-        <v>20.8575439244798</v>
+        <v>274.730419642599</v>
       </c>
       <c r="S2">
-        <v>0.01601575999480924</v>
+        <v>0.02033202926416675</v>
       </c>
       <c r="T2">
-        <v>0.01601575999480924</v>
+        <v>0.02300351955079527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="H3">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="I3">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="J3">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.38304859847329</v>
+        <v>74.90488699999999</v>
       </c>
       <c r="N3">
-        <v>70.38304859847329</v>
+        <v>224.714661</v>
       </c>
       <c r="O3">
-        <v>0.6523701119647882</v>
+        <v>0.6211031783662234</v>
       </c>
       <c r="P3">
-        <v>0.6523701119647882</v>
+        <v>0.6425071647241004</v>
       </c>
       <c r="Q3">
-        <v>213.6358111051634</v>
+        <v>229.401384874703</v>
       </c>
       <c r="R3">
-        <v>213.6358111051634</v>
+        <v>2064.612463872327</v>
       </c>
       <c r="S3">
-        <v>0.1640432780266594</v>
+        <v>0.1527961886755208</v>
       </c>
       <c r="T3">
-        <v>0.1640432780266594</v>
+        <v>0.1728725680952531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="H4">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="I4">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="J4">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.21984606410653</v>
+        <v>9.558087666666667</v>
       </c>
       <c r="N4">
-        <v>9.21984606410653</v>
+        <v>28.674263</v>
       </c>
       <c r="O4">
-        <v>0.08545739533751537</v>
+        <v>0.07925462365185423</v>
       </c>
       <c r="P4">
-        <v>0.08545739533751537</v>
+        <v>0.08198583634328682</v>
       </c>
       <c r="Q4">
-        <v>27.98527957217347</v>
+        <v>29.27230298721567</v>
       </c>
       <c r="R4">
-        <v>27.98527957217347</v>
+        <v>263.450726884941</v>
       </c>
       <c r="S4">
-        <v>0.02148889258670213</v>
+        <v>0.0194972507800882</v>
       </c>
       <c r="T4">
-        <v>0.02148889258670213</v>
+        <v>0.02205905685454452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="H5">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="I5">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="J5">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8387733165704</v>
+        <v>14.11675466666667</v>
       </c>
       <c r="N5">
-        <v>12.8387733165704</v>
+        <v>42.350264</v>
       </c>
       <c r="O5">
-        <v>0.1190006990717826</v>
+        <v>0.1170545947380294</v>
       </c>
       <c r="P5">
-        <v>0.1190006990717826</v>
+        <v>0.121088441345432</v>
       </c>
       <c r="Q5">
-        <v>38.96991968518315</v>
+        <v>43.23353522273867</v>
       </c>
       <c r="R5">
-        <v>38.96991968518315</v>
+        <v>389.101817004648</v>
       </c>
       <c r="S5">
-        <v>0.02992360380276422</v>
+        <v>0.02879633620612817</v>
       </c>
       <c r="T5">
-        <v>0.02992360380276422</v>
+        <v>0.0325799788256448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="H6">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="I6">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="J6">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.57496044729951</v>
+        <v>12.0527</v>
       </c>
       <c r="N6">
-        <v>8.57496044729951</v>
+        <v>24.1054</v>
       </c>
       <c r="O6">
-        <v>0.07948004552931165</v>
+        <v>0.09993967787301491</v>
       </c>
       <c r="P6">
-        <v>0.07948004552931165</v>
+        <v>0.06892248213631388</v>
       </c>
       <c r="Q6">
-        <v>26.02783861785241</v>
+        <v>36.9122253863</v>
       </c>
       <c r="R6">
-        <v>26.02783861785241</v>
+        <v>221.4733523178</v>
       </c>
       <c r="S6">
-        <v>0.01998584387483428</v>
+        <v>0.0245859342027904</v>
       </c>
       <c r="T6">
-        <v>0.01998584387483428</v>
+        <v>0.01854423910046223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="H7">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="I7">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="J7">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.8715891782713</v>
+        <v>9.967319</v>
       </c>
       <c r="N7">
-        <v>6.8715891782713</v>
+        <v>29.901957</v>
       </c>
       <c r="O7">
-        <v>0.06369174809660225</v>
+        <v>0.08264792537087799</v>
       </c>
       <c r="P7">
-        <v>0.06369174809660225</v>
+        <v>0.08549607545086686</v>
       </c>
       <c r="Q7">
-        <v>40.53413607494178</v>
+        <v>61.270126559538</v>
       </c>
       <c r="R7">
-        <v>40.53413607494178</v>
+        <v>551.431139035842</v>
       </c>
       <c r="S7">
-        <v>0.03112470947316476</v>
+        <v>0.04080987489712655</v>
       </c>
       <c r="T7">
-        <v>0.03112470947316476</v>
+        <v>0.04617201474896818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="H8">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="I8">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="J8">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.38304859847329</v>
+        <v>74.90488699999999</v>
       </c>
       <c r="N8">
-        <v>70.38304859847329</v>
+        <v>224.714661</v>
       </c>
       <c r="O8">
-        <v>0.6523701119647882</v>
+        <v>0.6211031783662234</v>
       </c>
       <c r="P8">
-        <v>0.6523701119647882</v>
+        <v>0.6425071647241004</v>
       </c>
       <c r="Q8">
-        <v>415.175586788713</v>
+        <v>460.4479806874739</v>
       </c>
       <c r="R8">
-        <v>415.175586788713</v>
+        <v>4144.031826187266</v>
       </c>
       <c r="S8">
-        <v>0.3187984442361882</v>
+        <v>0.3066881944536339</v>
       </c>
       <c r="T8">
-        <v>0.3187984442361882</v>
+        <v>0.3469849362033858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="H9">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="I9">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="J9">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.21984606410653</v>
+        <v>9.558087666666667</v>
       </c>
       <c r="N9">
-        <v>9.21984606410653</v>
+        <v>28.674263</v>
       </c>
       <c r="O9">
-        <v>0.08545739533751537</v>
+        <v>0.07925462365185423</v>
       </c>
       <c r="P9">
-        <v>0.08545739533751537</v>
+        <v>0.08198583634328682</v>
       </c>
       <c r="Q9">
-        <v>54.38603578546989</v>
+        <v>58.754539811942</v>
       </c>
       <c r="R9">
-        <v>54.38603578546989</v>
+        <v>528.7908583074781</v>
       </c>
       <c r="S9">
-        <v>0.04176108650965799</v>
+        <v>0.03913433110071374</v>
       </c>
       <c r="T9">
-        <v>0.04176108650965799</v>
+        <v>0.04427631589971829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="H10">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="I10">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="J10">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8387733165704</v>
+        <v>14.11675466666667</v>
       </c>
       <c r="N10">
-        <v>12.8387733165704</v>
+        <v>42.350264</v>
       </c>
       <c r="O10">
-        <v>0.1190006990717826</v>
+        <v>0.1170545947380294</v>
       </c>
       <c r="P10">
-        <v>0.1190006990717826</v>
+        <v>0.121088441345432</v>
       </c>
       <c r="Q10">
-        <v>75.733366932759</v>
+        <v>86.777130844976</v>
       </c>
       <c r="R10">
-        <v>75.733366932759</v>
+        <v>780.9941776047841</v>
       </c>
       <c r="S10">
-        <v>0.05815293654831134</v>
+        <v>0.05779919273177613</v>
       </c>
       <c r="T10">
-        <v>0.05815293654831134</v>
+        <v>0.06539361333543141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="H11">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="I11">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="J11">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.57496044729951</v>
+        <v>12.0527</v>
       </c>
       <c r="N11">
-        <v>8.57496044729951</v>
+        <v>24.1054</v>
       </c>
       <c r="O11">
-        <v>0.07948004552931165</v>
+        <v>0.09993967787301491</v>
       </c>
       <c r="P11">
-        <v>0.07948004552931165</v>
+        <v>0.06892248213631388</v>
       </c>
       <c r="Q11">
-        <v>50.58198396189964</v>
+        <v>74.08917627540001</v>
       </c>
       <c r="R11">
-        <v>50.58198396189964</v>
+        <v>444.5350576524</v>
       </c>
       <c r="S11">
-        <v>0.03884009153370532</v>
+        <v>0.04934819274597283</v>
       </c>
       <c r="T11">
-        <v>0.03884009153370532</v>
+        <v>0.0372214729734839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="H12">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="I12">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="J12">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.8715891782713</v>
+        <v>9.967319</v>
       </c>
       <c r="N12">
-        <v>6.8715891782713</v>
+        <v>29.901957</v>
       </c>
       <c r="O12">
-        <v>0.06369174809660225</v>
+        <v>0.08264792537087799</v>
       </c>
       <c r="P12">
-        <v>0.06369174809660225</v>
+        <v>0.08549607545086686</v>
       </c>
       <c r="Q12">
-        <v>21.5549571868462</v>
+        <v>0.1754082022016667</v>
       </c>
       <c r="R12">
-        <v>21.5549571868462</v>
+        <v>1.578673819815</v>
       </c>
       <c r="S12">
-        <v>0.01655127862862824</v>
+        <v>0.0001168332299889062</v>
       </c>
       <c r="T12">
-        <v>0.01655127862862824</v>
+        <v>0.0001321843213637785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="H13">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="I13">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="J13">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.38304859847329</v>
+        <v>74.90488699999999</v>
       </c>
       <c r="N13">
-        <v>70.38304859847329</v>
+        <v>224.714661</v>
       </c>
       <c r="O13">
-        <v>0.6523701119647882</v>
+        <v>0.6211031783662234</v>
       </c>
       <c r="P13">
-        <v>0.6523701119647882</v>
+        <v>0.6425071647241004</v>
       </c>
       <c r="Q13">
-        <v>220.779147277467</v>
+        <v>1.318201169721666</v>
       </c>
       <c r="R13">
-        <v>220.779147277467</v>
+        <v>11.863810527495</v>
       </c>
       <c r="S13">
-        <v>0.1695283897019405</v>
+        <v>0.0008780074050167381</v>
       </c>
       <c r="T13">
-        <v>0.1695283897019405</v>
+        <v>0.0009933716032290638</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="H14">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="I14">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="J14">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.21984606410653</v>
+        <v>9.558087666666667</v>
       </c>
       <c r="N14">
-        <v>9.21984606410653</v>
+        <v>28.674263</v>
       </c>
       <c r="O14">
-        <v>0.08545739533751537</v>
+        <v>0.07925462365185423</v>
       </c>
       <c r="P14">
-        <v>0.08545739533751537</v>
+        <v>0.08198583634328682</v>
       </c>
       <c r="Q14">
-        <v>28.92102278313508</v>
+        <v>0.1682064127872222</v>
       </c>
       <c r="R14">
-        <v>28.92102278313508</v>
+        <v>1.513857715085</v>
       </c>
       <c r="S14">
-        <v>0.02220741624115524</v>
+        <v>0.0001120363715271674</v>
       </c>
       <c r="T14">
-        <v>0.02220741624115524</v>
+        <v>0.0001267571883426059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="H15">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="I15">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="J15">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8387733165704</v>
+        <v>14.11675466666667</v>
       </c>
       <c r="N15">
-        <v>12.8387733165704</v>
+        <v>42.350264</v>
       </c>
       <c r="O15">
-        <v>0.1190006990717826</v>
+        <v>0.1170545947380294</v>
       </c>
       <c r="P15">
-        <v>0.1190006990717826</v>
+        <v>0.121088441345432</v>
       </c>
       <c r="Q15">
-        <v>40.27295607912321</v>
+        <v>0.2484313542088889</v>
       </c>
       <c r="R15">
-        <v>40.27295607912321</v>
+        <v>2.23588218788</v>
       </c>
       <c r="S15">
-        <v>0.03092415872070699</v>
+        <v>0.0001654713814886061</v>
       </c>
       <c r="T15">
-        <v>0.03092415872070699</v>
+        <v>0.0001872131949897747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.052795</v>
+      </c>
+      <c r="I16">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="J16">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.0527</v>
+      </c>
+      <c r="N16">
+        <v>24.1054</v>
+      </c>
+      <c r="O16">
+        <v>0.09993967787301491</v>
+      </c>
+      <c r="P16">
+        <v>0.06892248213631388</v>
+      </c>
+      <c r="Q16">
+        <v>0.2121074321666667</v>
+      </c>
+      <c r="R16">
+        <v>1.272644593</v>
+      </c>
+      <c r="S16">
+        <v>0.0001412772954379497</v>
+      </c>
+      <c r="T16">
+        <v>0.0001065601137812627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.022088</v>
+      </c>
+      <c r="H17">
+        <v>0.066264</v>
+      </c>
+      <c r="I17">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="J17">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.967319</v>
+      </c>
+      <c r="N17">
+        <v>29.901957</v>
+      </c>
+      <c r="O17">
+        <v>0.08264792537087799</v>
+      </c>
+      <c r="P17">
+        <v>0.08549607545086686</v>
+      </c>
+      <c r="Q17">
+        <v>0.220158142072</v>
+      </c>
+      <c r="R17">
+        <v>1.981423278648</v>
+      </c>
+      <c r="S17">
+        <v>0.0001466395899608842</v>
+      </c>
+      <c r="T17">
+        <v>0.0001659070342049326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.022088</v>
+      </c>
+      <c r="H18">
+        <v>0.066264</v>
+      </c>
+      <c r="I18">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="J18">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>74.90488699999999</v>
+      </c>
+      <c r="N18">
+        <v>224.714661</v>
+      </c>
+      <c r="O18">
+        <v>0.6211031783662234</v>
+      </c>
+      <c r="P18">
+        <v>0.6425071647241004</v>
+      </c>
+      <c r="Q18">
+        <v>1.654499144056</v>
+      </c>
+      <c r="R18">
+        <v>14.890492296504</v>
+      </c>
+      <c r="S18">
+        <v>0.001102003649702228</v>
+      </c>
+      <c r="T18">
+        <v>0.001246799430180333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.022088</v>
+      </c>
+      <c r="H19">
+        <v>0.066264</v>
+      </c>
+      <c r="I19">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="J19">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.558087666666667</v>
+      </c>
+      <c r="N19">
+        <v>28.674263</v>
+      </c>
+      <c r="O19">
+        <v>0.07925462365185423</v>
+      </c>
+      <c r="P19">
+        <v>0.08198583634328682</v>
+      </c>
+      <c r="Q19">
+        <v>0.2111190403813333</v>
+      </c>
+      <c r="R19">
+        <v>1.900071363432</v>
+      </c>
+      <c r="S19">
+        <v>0.0001406189624562216</v>
+      </c>
+      <c r="T19">
+        <v>0.0001590953372162976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.022088</v>
+      </c>
+      <c r="H20">
+        <v>0.066264</v>
+      </c>
+      <c r="I20">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="J20">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.11675466666667</v>
+      </c>
+      <c r="N20">
+        <v>42.350264</v>
+      </c>
+      <c r="O20">
+        <v>0.1170545947380294</v>
+      </c>
+      <c r="P20">
+        <v>0.121088441345432</v>
+      </c>
+      <c r="Q20">
+        <v>0.3118108770773333</v>
+      </c>
+      <c r="R20">
+        <v>2.806297893696</v>
+      </c>
+      <c r="S20">
+        <v>0.0002076862510268206</v>
+      </c>
+      <c r="T20">
+        <v>0.0002349748111147349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.022088</v>
+      </c>
+      <c r="H21">
+        <v>0.066264</v>
+      </c>
+      <c r="I21">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="J21">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.0527</v>
+      </c>
+      <c r="N21">
+        <v>24.1054</v>
+      </c>
+      <c r="O21">
+        <v>0.09993967787301491</v>
+      </c>
+      <c r="P21">
+        <v>0.06892248213631388</v>
+      </c>
+      <c r="Q21">
+        <v>0.2662200376</v>
+      </c>
+      <c r="R21">
+        <v>1.5973202256</v>
+      </c>
+      <c r="S21">
+        <v>0.0001773197974221101</v>
+      </c>
+      <c r="T21">
+        <v>0.0001337456080992819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.1997185</v>
+      </c>
+      <c r="H22">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="J22">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.967319</v>
+      </c>
+      <c r="N22">
+        <v>29.901957</v>
+      </c>
+      <c r="O22">
+        <v>0.08264792537087799</v>
+      </c>
+      <c r="P22">
+        <v>0.08549607545086686</v>
+      </c>
+      <c r="Q22">
+        <v>31.8926149997015</v>
+      </c>
+      <c r="R22">
+        <v>191.355689998209</v>
+      </c>
+      <c r="S22">
+        <v>0.02124254838963489</v>
+      </c>
+      <c r="T22">
+        <v>0.01602244979553469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.1997185</v>
+      </c>
+      <c r="H23">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="J23">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.90488699999999</v>
+      </c>
+      <c r="N23">
+        <v>224.714661</v>
+      </c>
+      <c r="O23">
+        <v>0.6211031783662234</v>
+      </c>
+      <c r="P23">
+        <v>0.6425071647241004</v>
+      </c>
+      <c r="Q23">
+        <v>239.6745526743095</v>
+      </c>
+      <c r="R23">
+        <v>1438.047316045857</v>
+      </c>
+      <c r="S23">
+        <v>0.1596387841823497</v>
+      </c>
+      <c r="T23">
+        <v>0.1204094893920521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="H16">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="I16">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="J16">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.57496044729951</v>
-      </c>
-      <c r="N16">
-        <v>8.57496044729951</v>
-      </c>
-      <c r="O16">
-        <v>0.07948004552931165</v>
-      </c>
-      <c r="P16">
-        <v>0.07948004552931165</v>
-      </c>
-      <c r="Q16">
-        <v>26.89813091633911</v>
-      </c>
-      <c r="R16">
-        <v>26.89813091633911</v>
-      </c>
-      <c r="S16">
-        <v>0.02065411012077203</v>
-      </c>
-      <c r="T16">
-        <v>0.02065411012077203</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.1997185</v>
+      </c>
+      <c r="H24">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="J24">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.558087666666667</v>
+      </c>
+      <c r="N24">
+        <v>28.674263</v>
+      </c>
+      <c r="O24">
+        <v>0.07925462365185423</v>
+      </c>
+      <c r="P24">
+        <v>0.08198583634328682</v>
+      </c>
+      <c r="Q24">
+        <v>30.58318993165517</v>
+      </c>
+      <c r="R24">
+        <v>183.499139589931</v>
+      </c>
+      <c r="S24">
+        <v>0.0203703864370689</v>
+      </c>
+      <c r="T24">
+        <v>0.01536461106346511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.1997185</v>
+      </c>
+      <c r="H25">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="J25">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.11675466666667</v>
+      </c>
+      <c r="N25">
+        <v>42.350264</v>
+      </c>
+      <c r="O25">
+        <v>0.1170545947380294</v>
+      </c>
+      <c r="P25">
+        <v>0.121088441345432</v>
+      </c>
+      <c r="Q25">
+        <v>45.16964106689467</v>
+      </c>
+      <c r="R25">
+        <v>271.017846401368</v>
+      </c>
+      <c r="S25">
+        <v>0.03008590816760965</v>
+      </c>
+      <c r="T25">
+        <v>0.02269266117825132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.1997185</v>
+      </c>
+      <c r="H26">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="J26">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.0527</v>
+      </c>
+      <c r="N26">
+        <v>24.1054</v>
+      </c>
+      <c r="O26">
+        <v>0.09993967787301491</v>
+      </c>
+      <c r="P26">
+        <v>0.06892248213631388</v>
+      </c>
+      <c r="Q26">
+        <v>38.56524716495</v>
+      </c>
+      <c r="R26">
+        <v>154.2609886598</v>
+      </c>
+      <c r="S26">
+        <v>0.02568695383139162</v>
+      </c>
+      <c r="T26">
+        <v>0.01291646434048721</v>
       </c>
     </row>
   </sheetData>
